--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J2">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.3918391589297</v>
+        <v>0.002632</v>
       </c>
       <c r="N2">
-        <v>17.3918391589297</v>
+        <v>0.007896</v>
       </c>
       <c r="O2">
-        <v>0.04829507221310243</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="P2">
-        <v>0.04829507221310243</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="Q2">
-        <v>959.6180465830184</v>
+        <v>0.0006319186346666667</v>
       </c>
       <c r="R2">
-        <v>959.6180465830184</v>
+        <v>0.005687267712</v>
       </c>
       <c r="S2">
-        <v>0.002447670632024322</v>
+        <v>1.347247012193773E-09</v>
       </c>
       <c r="T2">
-        <v>0.002447670632024322</v>
+        <v>1.347247012193773E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H3">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I3">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J3">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.0751712488256</v>
+        <v>58.61543533333333</v>
       </c>
       <c r="N3">
-        <v>22.0751712488256</v>
+        <v>175.846306</v>
       </c>
       <c r="O3">
-        <v>0.06130012932135721</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="P3">
-        <v>0.06130012932135721</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="Q3">
-        <v>1218.027174596254</v>
+        <v>14.07301894613689</v>
       </c>
       <c r="R3">
-        <v>1218.027174596254</v>
+        <v>126.657170515232</v>
       </c>
       <c r="S3">
-        <v>0.00310678749204712</v>
+        <v>3.000359807039158E-05</v>
       </c>
       <c r="T3">
-        <v>0.00310678749204712</v>
+        <v>3.000359807039157E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H4">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I4">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J4">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>320.649215988761</v>
+        <v>28.58678433333334</v>
       </c>
       <c r="N4">
-        <v>320.649215988761</v>
+        <v>85.76035300000001</v>
       </c>
       <c r="O4">
-        <v>0.8904047984655403</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="P4">
-        <v>0.8904047984655403</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="Q4">
-        <v>17692.25045572738</v>
+        <v>6.863420108446223</v>
       </c>
       <c r="R4">
-        <v>17692.25045572738</v>
+        <v>61.77078097601601</v>
       </c>
       <c r="S4">
-        <v>0.04512712324356692</v>
+        <v>1.463277347314251E-05</v>
       </c>
       <c r="T4">
-        <v>0.04512712324356692</v>
+        <v>1.463277347314251E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>110.013095581499</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H5">
-        <v>110.013095581499</v>
+        <v>0.720272</v>
       </c>
       <c r="I5">
-        <v>0.1010512397649669</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J5">
-        <v>0.1010512397649669</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.3918391589297</v>
+        <v>335.2538503333333</v>
       </c>
       <c r="N5">
-        <v>17.3918391589297</v>
+        <v>1005.761551</v>
       </c>
       <c r="O5">
-        <v>0.04829507221310243</v>
+        <v>0.7935778071233418</v>
       </c>
       <c r="P5">
-        <v>0.04829507221310243</v>
+        <v>0.7935778071233417</v>
       </c>
       <c r="Q5">
-        <v>1913.33006372939</v>
+        <v>80.49132042909689</v>
       </c>
       <c r="R5">
-        <v>1913.33006372939</v>
+        <v>724.4218838618721</v>
       </c>
       <c r="S5">
-        <v>0.004880276921672606</v>
+        <v>0.0001716070471839064</v>
       </c>
       <c r="T5">
-        <v>0.004880276921672606</v>
+        <v>0.0001716070471839064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>110.013095581499</v>
+        <v>0.084971</v>
       </c>
       <c r="H6">
-        <v>110.013095581499</v>
+        <v>0.254913</v>
       </c>
       <c r="I6">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J6">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>22.0751712488256</v>
+        <v>0.002632</v>
       </c>
       <c r="N6">
-        <v>22.0751712488256</v>
+        <v>0.007896</v>
       </c>
       <c r="O6">
-        <v>0.06130012932135721</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="P6">
-        <v>0.06130012932135721</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="Q6">
-        <v>2428.55792457501</v>
+        <v>0.000223643672</v>
       </c>
       <c r="R6">
-        <v>2428.55792457501</v>
+        <v>0.002012793048</v>
       </c>
       <c r="S6">
-        <v>0.006194454065675947</v>
+        <v>4.768070640249117E-10</v>
       </c>
       <c r="T6">
-        <v>0.006194454065675947</v>
+        <v>4.768070640249116E-10</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -841,173 +847,173 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>110.013095581499</v>
+        <v>0.084971</v>
       </c>
       <c r="H7">
-        <v>110.013095581499</v>
+        <v>0.254913</v>
       </c>
       <c r="I7">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J7">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>320.649215988761</v>
+        <v>58.61543533333333</v>
       </c>
       <c r="N7">
-        <v>320.649215988761</v>
+        <v>175.846306</v>
       </c>
       <c r="O7">
-        <v>0.8904047984655403</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="P7">
-        <v>0.8904047984655403</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="Q7">
-        <v>35275.61284670428</v>
+        <v>4.980612155708667</v>
       </c>
       <c r="R7">
-        <v>35275.61284670428</v>
+        <v>44.825509401378</v>
       </c>
       <c r="S7">
-        <v>0.08997650877761837</v>
+        <v>1.061863739659146E-05</v>
       </c>
       <c r="T7">
-        <v>0.08997650877761837</v>
+        <v>1.061863739659146E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>923.49681651051</v>
+        <v>0.084971</v>
       </c>
       <c r="H8">
-        <v>923.49681651051</v>
+        <v>0.254913</v>
       </c>
       <c r="I8">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J8">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3918391589297</v>
+        <v>28.58678433333334</v>
       </c>
       <c r="N8">
-        <v>17.3918391589297</v>
+        <v>85.76035300000001</v>
       </c>
       <c r="O8">
-        <v>0.04829507221310243</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="P8">
-        <v>0.04829507221310243</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="Q8">
-        <v>16061.3080965344</v>
+        <v>2.429047651587667</v>
       </c>
       <c r="R8">
-        <v>16061.3080965344</v>
+        <v>21.861428864289</v>
       </c>
       <c r="S8">
-        <v>0.04096712465940551</v>
+        <v>5.178716074426296E-06</v>
       </c>
       <c r="T8">
-        <v>0.04096712465940551</v>
+        <v>5.178716074426295E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>923.49681651051</v>
+        <v>0.084971</v>
       </c>
       <c r="H9">
-        <v>923.49681651051</v>
+        <v>0.254913</v>
       </c>
       <c r="I9">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J9">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.0751712488256</v>
+        <v>335.2538503333333</v>
       </c>
       <c r="N9">
-        <v>22.0751712488256</v>
+        <v>1005.761551</v>
       </c>
       <c r="O9">
-        <v>0.06130012932135721</v>
+        <v>0.7935778071233418</v>
       </c>
       <c r="P9">
-        <v>0.06130012932135721</v>
+        <v>0.7935778071233417</v>
       </c>
       <c r="Q9">
-        <v>20386.35037221478</v>
+        <v>28.48685491667367</v>
       </c>
       <c r="R9">
-        <v>20386.35037221478</v>
+        <v>256.381694250063</v>
       </c>
       <c r="S9">
-        <v>0.05199888776363415</v>
+        <v>6.073381614000146E-05</v>
       </c>
       <c r="T9">
-        <v>0.05199888776363415</v>
+        <v>6.073381614000144E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>62.546238</v>
+      </c>
+      <c r="H10">
+        <v>187.638714</v>
+      </c>
+      <c r="I10">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J10">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.002632</v>
+      </c>
+      <c r="N10">
+        <v>0.007896</v>
+      </c>
+      <c r="O10">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P10">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q10">
+        <v>0.164621698416</v>
+      </c>
+      <c r="R10">
+        <v>1.481595285744</v>
+      </c>
+      <c r="S10">
+        <v>3.509725448280398E-07</v>
+      </c>
+      <c r="T10">
+        <v>3.509725448280397E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>62.546238</v>
+      </c>
+      <c r="H11">
+        <v>187.638714</v>
+      </c>
+      <c r="I11">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J11">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N11">
+        <v>175.846306</v>
+      </c>
+      <c r="O11">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P11">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q11">
+        <v>3666.174968832276</v>
+      </c>
+      <c r="R11">
+        <v>32995.57471949048</v>
+      </c>
+      <c r="S11">
+        <v>0.007816264629613752</v>
+      </c>
+      <c r="T11">
+        <v>0.007816264629613752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>62.546238</v>
+      </c>
+      <c r="H12">
+        <v>187.638714</v>
+      </c>
+      <c r="I12">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J12">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N12">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O12">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P12">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q12">
+        <v>1787.995816567338</v>
+      </c>
+      <c r="R12">
+        <v>16091.96234910604</v>
+      </c>
+      <c r="S12">
+        <v>0.003811997129908943</v>
+      </c>
+      <c r="T12">
+        <v>0.003811997129908943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>62.546238</v>
+      </c>
+      <c r="H13">
+        <v>187.638714</v>
+      </c>
+      <c r="I13">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J13">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N13">
+        <v>1005.761551</v>
+      </c>
+      <c r="O13">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P13">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q13">
+        <v>20968.86711336505</v>
+      </c>
+      <c r="R13">
+        <v>188719.8040202854</v>
+      </c>
+      <c r="S13">
+        <v>0.04470550798438023</v>
+      </c>
+      <c r="T13">
+        <v>0.04470550798438022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H14">
+        <v>330.729865</v>
+      </c>
+      <c r="I14">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J14">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002632</v>
+      </c>
+      <c r="N14">
+        <v>0.007896</v>
+      </c>
+      <c r="O14">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P14">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q14">
+        <v>0.2901603348933334</v>
+      </c>
+      <c r="R14">
+        <v>2.61144301404</v>
+      </c>
+      <c r="S14">
+        <v>6.186202191179165E-07</v>
+      </c>
+      <c r="T14">
+        <v>6.186202191179163E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>923.49681651051</v>
-      </c>
-      <c r="H10">
-        <v>923.49681651051</v>
-      </c>
-      <c r="I10">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="J10">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>320.649215988761</v>
-      </c>
-      <c r="N10">
-        <v>320.649215988761</v>
-      </c>
-      <c r="O10">
-        <v>0.8904047984655403</v>
-      </c>
-      <c r="P10">
-        <v>0.8904047984655403</v>
-      </c>
-      <c r="Q10">
-        <v>296118.5301822117</v>
-      </c>
-      <c r="R10">
-        <v>296118.5301822117</v>
-      </c>
-      <c r="S10">
-        <v>0.7553011664443551</v>
-      </c>
-      <c r="T10">
-        <v>0.7553011664443551</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H15">
+        <v>330.729865</v>
+      </c>
+      <c r="I15">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J15">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N15">
+        <v>175.846306</v>
+      </c>
+      <c r="O15">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P15">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q15">
+        <v>6461.958338236521</v>
+      </c>
+      <c r="R15">
+        <v>58157.62504412869</v>
+      </c>
+      <c r="S15">
+        <v>0.01377685921337337</v>
+      </c>
+      <c r="T15">
+        <v>0.01377685921337337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H16">
+        <v>330.729865</v>
+      </c>
+      <c r="I16">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J16">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N16">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P16">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q16">
+        <v>3151.501107782483</v>
+      </c>
+      <c r="R16">
+        <v>28363.50997004235</v>
+      </c>
+      <c r="S16">
+        <v>0.006718982822250489</v>
+      </c>
+      <c r="T16">
+        <v>0.006718982822250488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H17">
+        <v>330.729865</v>
+      </c>
+      <c r="I17">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J17">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N17">
+        <v>1005.761551</v>
+      </c>
+      <c r="O17">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P17">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q17">
+        <v>36959.48688715785</v>
+      </c>
+      <c r="R17">
+        <v>332635.3819844206</v>
+      </c>
+      <c r="S17">
+        <v>0.07879742034701057</v>
+      </c>
+      <c r="T17">
+        <v>0.07879742034701055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H18">
+        <v>2811.474426</v>
+      </c>
+      <c r="I18">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J18">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.002632</v>
+      </c>
+      <c r="N18">
+        <v>0.007896</v>
+      </c>
+      <c r="O18">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P18">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q18">
+        <v>2.466600229744</v>
+      </c>
+      <c r="R18">
+        <v>22.199402067696</v>
+      </c>
+      <c r="S18">
+        <v>5.258777962058365E-06</v>
+      </c>
+      <c r="T18">
+        <v>5.258777962058364E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H19">
+        <v>2811.474426</v>
+      </c>
+      <c r="I19">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J19">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N19">
+        <v>175.846306</v>
+      </c>
+      <c r="O19">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P19">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q19">
+        <v>54931.93246950781</v>
+      </c>
+      <c r="R19">
+        <v>494387.3922255703</v>
+      </c>
+      <c r="S19">
+        <v>0.1171145743037198</v>
+      </c>
+      <c r="T19">
+        <v>0.1171145743037198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H20">
+        <v>2811.474426</v>
+      </c>
+      <c r="I20">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J20">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N20">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O20">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P20">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q20">
+        <v>26790.33769158138</v>
+      </c>
+      <c r="R20">
+        <v>241113.0392242324</v>
+      </c>
+      <c r="S20">
+        <v>0.0571168508579972</v>
+      </c>
+      <c r="T20">
+        <v>0.0571168508579972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H21">
+        <v>2811.474426</v>
+      </c>
+      <c r="I21">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J21">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N21">
+        <v>1005.761551</v>
+      </c>
+      <c r="O21">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P21">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q21">
+        <v>314185.8754767327</v>
+      </c>
+      <c r="R21">
+        <v>2827672.879290595</v>
+      </c>
+      <c r="S21">
+        <v>0.6698425379286271</v>
+      </c>
+      <c r="T21">
+        <v>0.6698425379286269</v>
       </c>
     </row>
   </sheetData>
